--- a/data/income_statement/1digit/size/Q_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/Q_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>Q-Human health and social work activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>Q-Human health and social work activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3733765.53221</v>
+        <v>3703127.38374</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3826771.5125</v>
+        <v>3759629.92787</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4311217.323</v>
+        <v>4458360.04961</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4674085.53722</v>
+        <v>4760706.43432</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4877323.63888</v>
+        <v>4881897.090660001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5385110.866749999</v>
+        <v>5453689.381420001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5830346.706200001</v>
+        <v>5815856.552290001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6488271.279379999</v>
+        <v>6633462.46225</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6937629.6782</v>
+        <v>7041528.66976</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7243349.523870001</v>
+        <v>7073523.96367</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7713855.68831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7772222.4197</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8295429.582</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3646039.11911</v>
+        <v>3618762.99152</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3739997.40977</v>
+        <v>3677937.66963</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4187920.51184</v>
+        <v>4323000.1656</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4539248.79554</v>
+        <v>4625153.10295</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4726627.31103</v>
+        <v>4720951.452739999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5171026.12809</v>
+        <v>5223304.5276</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5573551.182920001</v>
+        <v>5565466.12083</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6186341.678060001</v>
+        <v>6334063.809099999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6547071.312459999</v>
+        <v>6668199.1993</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6807307.652290001</v>
+        <v>6678232.96774</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7189201.847550001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7204181.91051</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7718895.2</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14218.45048</v>
+        <v>14620.75646</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15665.04912</v>
+        <v>14500.21816</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24150.15814</v>
+        <v>40391.59570000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>41240.40534</v>
+        <v>47912.89074</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>50859.18419000001</v>
+        <v>56885.78496</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>106627.34231</v>
+        <v>108224.56595</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>122244.97274</v>
+        <v>122351.89892</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>112702.2577</v>
+        <v>121429.51754</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>166055.0337</v>
+        <v>166049.82618</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>205525.00144</v>
+        <v>181463.66795</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>241278.21264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>318203.32094</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>304334.563</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>73507.96261999999</v>
+        <v>69743.63576</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>71109.05360999999</v>
+        <v>67192.04008000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>99146.65302</v>
+        <v>94968.28831</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>93596.33634000001</v>
+        <v>87640.44063</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>99837.14366000002</v>
+        <v>104059.85296</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>107457.39635</v>
+        <v>122160.28787</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>134550.55054</v>
+        <v>128038.53254</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>189227.34362</v>
+        <v>177969.13561</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>224503.33204</v>
+        <v>207279.64428</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>230516.87014</v>
+        <v>213827.32798</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>283375.62812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>249837.18825</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>272199.819</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>52213.95454</v>
+        <v>54193.77583000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>41393.28299</v>
+        <v>40589.97984</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>41063.74127</v>
+        <v>43672.48002</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>51195.35115000001</v>
+        <v>51482.67429</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>33257.44387</v>
+        <v>35420.42878</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>37280.56129</v>
+        <v>37927.17658</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>33256.92355</v>
+        <v>39054.79659</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>38195.89643</v>
+        <v>39939.34153</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>45596.30781999999</v>
+        <v>45272.95536</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>43265.86439</v>
+        <v>43093.32104</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>47082.62593999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>46266.0578</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>66988.997</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>36783.4852</v>
+        <v>38882.60705000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>29587.62503</v>
+        <v>29228.81857</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24796.51463</v>
+        <v>25843.39373</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>31026.9611</v>
+        <v>31728.9459</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>17034.77426</v>
+        <v>19373.93793</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>19474.69387000001</v>
+        <v>20105.0506</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>20656.53981</v>
+        <v>26495.74259</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>25153.02945</v>
+        <v>27047.58666</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>35621.78045000001</v>
+        <v>36580.76062</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>35556.9783</v>
+        <v>35384.43495</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>40096.82988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>39287.81509</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>61410.313</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>10368.4255</v>
+        <v>10323.52245</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9217.796350000002</v>
+        <v>8657.752470000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>13013.67464</v>
+        <v>14274.09533</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>15188.54779</v>
+        <v>14863.26431</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>11034.22148</v>
+        <v>10978.13016</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>15335.61622</v>
+        <v>15341.80054</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9814.259500000002</v>
+        <v>9719.97363</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9540.817239999998</v>
+        <v>9499.618489999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7293.3796</v>
+        <v>5988.792780000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>6110.00284</v>
@@ -1216,362 +1152,412 @@
       <c r="M11" s="48" t="n">
         <v>3382.254</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>3811.401</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5062.04384</v>
+        <v>4987.64633</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2587.86161</v>
+        <v>2703.4088</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3253.552</v>
+        <v>3554.99096</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4979.842259999999</v>
+        <v>4890.46408</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5188.44813</v>
+        <v>5068.36069</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2470.2512</v>
+        <v>2480.32544</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2786.12424</v>
+        <v>2839.08037</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3502.04974</v>
+        <v>3392.13638</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2681.14777</v>
+        <v>2703.401960000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>1598.88325</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3603.542060000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3595.988710000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1767.283</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3681551.57767</v>
+        <v>3648933.60791</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3785378.22951</v>
+        <v>3719039.94803</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4270153.58173</v>
+        <v>4414687.56959</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4622890.186069999</v>
+        <v>4709223.76003</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4844066.19501</v>
+        <v>4846476.66188</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5347830.305460001</v>
+        <v>5415762.20484</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5797089.78265</v>
+        <v>5776801.7557</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6450075.382949999</v>
+        <v>6593523.12072</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6892033.370379999</v>
+        <v>6996255.7144</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7200083.659480001</v>
+        <v>7030430.642629999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7666773.062369999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7725956.361900001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8228440.585</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2808939.89883</v>
+        <v>2816099.70807</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3020822.96468</v>
+        <v>3003117.35583</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3374879.16491</v>
+        <v>3533700.29278</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3745400.39181</v>
+        <v>3844360.00115</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3988721.24362</v>
+        <v>3999713.579099999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4425606.928359999</v>
+        <v>4482930.17265</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4738386.897740001</v>
+        <v>4748200.009570001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5354607.77531</v>
+        <v>5541202.42024</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5639159.6293</v>
+        <v>5788207.8565</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5889160.929769999</v>
+        <v>5821186.47628</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6215371.344290001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6325921.39549</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6529723.774</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>40300.63701000001</v>
+        <v>39326.99897</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>27089.74379</v>
+        <v>25110.1925</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>17795.03457</v>
+        <v>14540.42369</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>26104.21454</v>
+        <v>25295.79683</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>68698.72988999999</v>
+        <v>72950.75442</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>27173.34961</v>
+        <v>27384.48694</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>59125.51695999999</v>
+        <v>63288.9189</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>76618.66778</v>
+        <v>82068.19015000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>80755.13574</v>
+        <v>73796.33158</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>125690.50776</v>
+        <v>125662.28321</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>85474.68142000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>86173.11693</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>112484.252</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>63916.53474</v>
+        <v>61098.33469999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>84202.23178</v>
+        <v>78039.47745000002</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>73000.70864</v>
+        <v>81697.99054000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>76679.0417</v>
+        <v>80216.01434000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>83178.55561999998</v>
+        <v>86603.97292999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>193855.21905</v>
+        <v>194475.37825</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>192772.72212</v>
+        <v>188195.46841</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>236230.82328</v>
+        <v>236577.72643</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>199989.8110200001</v>
+        <v>201089.3662</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>134780.71964</v>
+        <v>124631.27023</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>305947.17614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>280746.86253</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>286924.484</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2693634.21399</v>
+        <v>2704676.1972</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2906097.92524</v>
+        <v>2896289.16083</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3274545.45373</v>
+        <v>3428534.62341</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3630637.83852</v>
+        <v>3727993.9914</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3830759.23785</v>
+        <v>3834879.70813</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4200645.36386</v>
+        <v>4257708.94426</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4477797.15031</v>
+        <v>4490897.037289999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5021048.35172</v>
+        <v>5206334.124059999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5346687.6631</v>
+        <v>5503512.782199999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5609349.98247</v>
+        <v>5551553.20294</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5782095.1388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5916726.22141</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6106734.379</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11088.51309</v>
+        <v>10998.1772</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3433.06387</v>
+        <v>3678.52505</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9537.96797</v>
+        <v>8927.255140000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>11979.29705</v>
+        <v>10854.19858</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6084.72026</v>
+        <v>5279.14362</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3932.99584</v>
+        <v>3361.3632</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8691.50835</v>
+        <v>5818.58497</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20709.93253</v>
+        <v>16222.3796</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>11727.01944</v>
+        <v>9809.376520000002</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>19339.7199</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>41854.34793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42275.19462</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23580.659</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>872611.6788399999</v>
+        <v>832833.89984</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>764555.26483</v>
+        <v>715922.5922000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>895274.4168199999</v>
+        <v>880987.27681</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>877489.79426</v>
+        <v>864863.7588799999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>855344.9513900001</v>
+        <v>846763.0827799999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>922223.3771</v>
+        <v>932832.0321899999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1058702.88491</v>
+        <v>1028601.74613</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1095467.60764</v>
+        <v>1052320.70048</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1252873.74108</v>
+        <v>1208047.8579</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1310922.72971</v>
+        <v>1209244.16635</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1451401.71808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1400034.96641</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1698716.811</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>526251.2543799999</v>
+        <v>513293.5006800001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>550703.85468</v>
+        <v>519266.07795</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>567059.2406099999</v>
+        <v>575157.7436</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>610695.50041</v>
+        <v>615880.42877</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>604207.74563</v>
+        <v>596226.1664400001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>696980.87631</v>
+        <v>716351.3751599999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>744386.2520600001</v>
+        <v>721957.1596299999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>848379.1263600001</v>
+        <v>834502.4260799999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>953895.8337900001</v>
+        <v>927986.66743</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1030342.34617</v>
+        <v>990988.7099499999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1122742.30025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1110278.57664</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1229241.385</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>75.41932000000001</v>
@@ -1589,16 +1575,16 @@
         <v>653.2086699999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>52.6763</v>
+        <v>361.94381</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>82.22032</v>
+        <v>1187.24144</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2569.13514</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15122.99165</v>
+        <v>15074.38865</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2088.58083</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>2433.33481</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1280.093</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>45538.67028</v>
+        <v>49395.42838</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>41569.30983</v>
+        <v>43889.56531999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>60708.33572999999</v>
+        <v>64787.15548</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>48412.02914</v>
+        <v>54093.96684</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53502.02686999999</v>
+        <v>55978.95817000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>67072.63908000001</v>
+        <v>72771.22223</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72732.54208</v>
+        <v>70793.39856</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>94683.81831</v>
+        <v>96188.71609</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>96748.33911</v>
+        <v>89340.08027999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>130284.85856</v>
+        <v>128646.38971</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>144078.49062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>140645.95556</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>224442.111</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>480637.16478</v>
+        <v>463822.65298</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>508724.25862</v>
+        <v>474966.2264</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>506185.00272</v>
+        <v>510204.68596</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>559623.77809</v>
+        <v>559126.76875</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>550052.51009</v>
+        <v>539593.9996</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>629855.56093</v>
+        <v>643218.20912</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>671571.48966</v>
+        <v>649976.51963</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>751126.1729100001</v>
+        <v>735744.57485</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>842024.50303</v>
+        <v>823572.1985000002</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>897968.9067800001</v>
+        <v>860253.7394099999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>976230.4748199999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>967199.2862699998</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1003519.181</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>346360.42446</v>
+        <v>319540.39916</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>213851.41015</v>
+        <v>196656.51425</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>328215.1762100001</v>
+        <v>305829.53321</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>266794.29385</v>
+        <v>248983.33011</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>251137.20576</v>
+        <v>250536.91634</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>225242.50079</v>
+        <v>216480.65703</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>314316.6328500001</v>
+        <v>306644.5865</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>247088.48128</v>
+        <v>217818.2744</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>298977.9072899999</v>
+        <v>280061.19047</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>280580.38354</v>
+        <v>218255.4564</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>328659.4178299999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>289756.38977</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>469475.426</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>90960.27488999999</v>
+        <v>69852.88584999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>81112.42265000001</v>
+        <v>68494.88029999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>60620.49371</v>
+        <v>69513.41391</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>98335.33488999998</v>
+        <v>86946.69216999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>84274.43630000002</v>
+        <v>79720.67598</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>99248.80431000001</v>
+        <v>107218.86269</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>129329.12364</v>
+        <v>116844.37154</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>146926.52761</v>
+        <v>116093.79331</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>172317.60762</v>
+        <v>149546.77857</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>382297.857</v>
+        <v>288870.28052</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>236696.25384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>186358.48381</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>255502.738</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>9201.217269999999</v>
+        <v>1455.43592</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>769.14989</v>
+        <v>833.51922</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>260.1956</v>
+        <v>517.7518699999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>268.77101</v>
+        <v>662.18061</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1423.77095</v>
+        <v>603.3205400000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>92.08835999999999</v>
+        <v>119.10042</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2847.08191</v>
+        <v>112.46755</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4933.88042</v>
+        <v>1761.11319</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5029.87374</v>
+        <v>5279.36017</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>2917.12831</v>
@@ -1801,254 +1812,289 @@
       <c r="M26" s="48" t="n">
         <v>1702.72086</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2000.696</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>6079.900449999999</v>
+        <v>1777.26519</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5268.65732</v>
+        <v>3385.04368</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>4596.01964</v>
+        <v>2974.22279</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7591.402970000001</v>
+        <v>6634.701140000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>5784.348849999999</v>
+        <v>4711.98903</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>6377.52031</v>
+        <v>4894.76736</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3489.08538</v>
+        <v>3356.60053</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>7835.851259999999</v>
+        <v>6856.54663</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7665.5653</v>
+        <v>7594.60702</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>17405.1947</v>
+        <v>14123.9447</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>8859.41617</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5269.148</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>24229.92604</v>
+        <v>22112.56399</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>24332.12561</v>
+        <v>21129.75681</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>20273.95377</v>
+        <v>19389.70903</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28082.33156</v>
+        <v>23535.71055</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>22422.48115</v>
+        <v>19951.02339</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>27262.32597</v>
+        <v>27894.48147</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32273.58038</v>
+        <v>24773.59383</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>36859.34854</v>
+        <v>25122.48679</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>39468.83296</v>
+        <v>35854.67051999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>58906.76665999999</v>
+        <v>49778.19188</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>48721.33746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>38248.43983</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>39317.349</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>563.67988</v>
+        <v>447.1117</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>542.5307299999999</v>
+        <v>470.11629</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>542.62388</v>
+        <v>539.97117</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>493.7221</v>
+        <v>807.1198200000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>406.95957</v>
+        <v>856.51674</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>448.6465</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>607.4286099999999</v>
+        <v>519.7157900000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>833.5443500000001</v>
+        <v>814.64435</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>340.7696</v>
+        <v>524.63226</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3336.16261</v>
+        <v>3166.86261</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>339.58114</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>386.511</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>162.55275</v>
+        <v>156.33275</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1507.19884</v>
+        <v>1550.30626</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1087.96403</v>
+        <v>1140.27781</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6381.49469</v>
+        <v>6380.34349</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>645.43974</v>
+        <v>572.52584</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4306.62705</v>
+        <v>4221.38325</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4080.39219</v>
+        <v>4022.65441</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>494.17794</v>
+        <v>489.51604</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2038.79886</v>
+        <v>2114.87801</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5430.835520000001</v>
+        <v>5430.61106</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1084.76714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3506.75696</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1431.188</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1379.9224</v>
+        <v>1776.48492</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1493.79308</v>
+        <v>1294.45052</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1430.04062</v>
+        <v>1022.29377</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3869.33343</v>
+        <v>971.23567</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3906.62286</v>
+        <v>721.21043</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1741.90749</v>
+        <v>810.7143499999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2261.02298</v>
+        <v>1122.07636</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2994.98251</v>
+        <v>2429.22592</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3064.08909</v>
+        <v>1578.4965</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2758.87949</v>
+        <v>2307.96678</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19345.63019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2599.0087</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6641.181</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>32531.73499</v>
+        <v>31696.27721</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>26846.74123</v>
+        <v>27358.80794999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>18621.04989</v>
+        <v>29404.21176</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>22411.40418</v>
+        <v>27330.79743</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>20145.07314</v>
+        <v>25449.20907</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23888.98381</v>
+        <v>40528.28019999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>49072.30415</v>
+        <v>51452.75781</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>48566.06034</v>
+        <v>46136.86968</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>67007.36394000001</v>
+        <v>55015.09632</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>241195.67663</v>
+        <v>165642.53987</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>94924.19112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>73230.96581000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>137115.163</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>331.3802900000001</v>
+        <v>342.39682</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>28.69569</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>9.49708</v>
+        <v>10.00008</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>310.14427</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>12.99981</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>67.694</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>168.72357</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>648.8970400000001</v>
+        <v>384.72544</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>6.651770000000001</v>
@@ -2105,7 +2156,7 @@
         <v>1005.91406</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>432.48683</v>
+        <v>431.29294</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>592.42542</v>
@@ -2113,257 +2164,292 @@
       <c r="M34" s="48" t="n">
         <v>944.39284</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1301.496</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>16311.23725</v>
+        <v>9920.293780000002</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>19674.63322</v>
+        <v>12059.45844</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>13792.49743</v>
+        <v>14508.32386</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>28716.06393</v>
+        <v>20103.79244</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29194.85183</v>
+        <v>26509.99273</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35065.16957</v>
+        <v>28235.95389</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>34030.82911</v>
+        <v>30817.10633</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>43383.86727999999</v>
+        <v>31458.57574</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>47269.8273</v>
+        <v>41153.74483</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49754.78765999999</v>
+        <v>44910.60988999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>60761.21711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>56914.20169</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>61972.312</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>53917.39719</v>
+        <v>51559.93589</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>47800.48387999999</v>
+        <v>45198.77583999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>64028.17963000001</v>
+        <v>84961.86528999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>38920.0502</v>
+        <v>43880.91561</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54975.14391</v>
+        <v>56054.25599000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>44819.13229000001</v>
+        <v>54207.74471000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>89383.05794999999</v>
+        <v>72048.75534999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>124529.93366</v>
+        <v>78330.32253999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>142501.81299</v>
+        <v>121050.59693</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>313788.93811</v>
+        <v>195790.60976</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>117851.87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>88620.55596</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>91019.226</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1225.92644</v>
+        <v>1282.97218</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1610.79398</v>
+        <v>1307.74317</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2183.73253</v>
+        <v>2237.18765</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1835.22323</v>
+        <v>1552.74635</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1258.15644</v>
+        <v>2544.42591</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>984.30696</v>
+        <v>1022.49719</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1695.47707</v>
+        <v>1159.32321</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2841.2071</v>
+        <v>1611.78867</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2602.00009</v>
+        <v>2538.92193</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2735.5773</v>
+        <v>2638.39433</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3295.63787</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3161.83416</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3830.329</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8850.898090000001</v>
+        <v>8688.91166</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8257.15295</v>
+        <v>8072.43941</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5907.601900000001</v>
+        <v>5950.255300000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>11770.94939</v>
+        <v>15450.84645</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5501.153079999999</v>
+        <v>5547.55693</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5089.68066</v>
+        <v>2977.15017</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4814.30708</v>
+        <v>3096.87072</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4428.44857</v>
+        <v>3730.26792</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19086.1818</v>
+        <v>18966.46439</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9142.156660000001</v>
+        <v>9104.962370000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9369.158800000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9563.83325</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3162.202</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>206.61868</v>
+        <v>206.29519</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>62.34339</v>
+        <v>61.87884</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>199.04995</v>
+        <v>198.81578</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>203.89092</v>
+        <v>192.31203</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>859.29051</v>
+        <v>451.256</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>488.7837500000001</v>
+        <v>24.72011</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>243.92327</v>
+        <v>13.51851</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1032.57237</v>
+        <v>870.3538599999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12892.9198</v>
+        <v>12528.4528</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>1015.9086</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1131.78527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>10.65527</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>298.957</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>36888.86652</v>
+        <v>35185.75821</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>25355.31605</v>
+        <v>24984.42166</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>49159.20423999999</v>
+        <v>70252.11838</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>18212.44671</v>
+        <v>20973.22299</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>37374.35052</v>
+        <v>37392.52808</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>25780.11666</v>
+        <v>37722.16885</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>68123.89200000001</v>
+        <v>53950.42978</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>90982.26924000001</v>
+        <v>57646.8716</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>91192.61479000001</v>
+        <v>65367.61111</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>290474.1585</v>
+        <v>172963.73127</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>93088.27559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>66197.13425</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>77325.302</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>29.95722</v>
+        <v>27.29731</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11.00308</v>
+        <v>7.88522</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5.23743</v>
+        <v>8.034429999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>11.71717</v>
+        <v>9.594100000000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>7.71271</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>1.34662</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>70.801</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>57.34493999999999</v>
+        <v>57.09987</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>2.30972</v>
@@ -2402,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>9.77881</v>
+        <v>9.778810000000002</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>42.27886</v>
+        <v>42.27878</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>19.42379</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.40443</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6657.7853</v>
+        <v>6111.60147</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>12501.56471</v>
+        <v>10762.09782</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6573.35358</v>
+        <v>6315.45375</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6876.04397</v>
+        <v>5692.41488</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9932.201789999999</v>
+        <v>10068.49758</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12455.69311</v>
+        <v>12440.65724</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14350.30905</v>
+        <v>13673.46365</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>25130.31751</v>
+        <v>14355.92162</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>16727.73104</v>
+        <v>21648.78123</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10418.98206</v>
+        <v>10065.4582</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10965.26142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9685.34798</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6330.88</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>129423.19006</v>
+        <v>127302.6911</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>122056.57688</v>
+        <v>122728.03376</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>135522.80511</v>
+        <v>158310.32593</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>145929.05322</v>
+        <v>147599.89113</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>148401.44649</v>
+        <v>156649.05927</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>184326.72957</v>
+        <v>199825.09734</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>198447.22226</v>
+        <v>180251.61953</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>227072.98113</v>
+        <v>238899.79972</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>254120.65037</v>
+        <v>274515.35519</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>404508.14426</v>
+        <v>344013.57227</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>320312.43041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>286261.9314</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>290078.333</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>110111.15708</v>
+        <v>109425.60608</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>106565.20565</v>
+        <v>108190.4212</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>120849.48262</v>
+        <v>141099.73593</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>135942.90209</v>
+        <v>138166.14485</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>138987.54871</v>
+        <v>148609.9935</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>173063.76969</v>
+        <v>189479.75773</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>178622.29246</v>
+        <v>163016.74305</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>213072.82864</v>
+        <v>207338.38534</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>237317.53468</v>
+        <v>254371.24249</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>340500.14649</v>
+        <v>283802.31661</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>290664.21857</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>257651.78525</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>273133.415</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>19312.03298</v>
+        <v>17877.08502</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>15491.37123</v>
+        <v>14537.61256</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>14673.32249</v>
+        <v>17210.59</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9986.15113</v>
+        <v>9433.746280000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>9413.897779999999</v>
+        <v>8039.06577</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11262.95988</v>
+        <v>10345.33961</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>19824.9298</v>
+        <v>17234.87648</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>14000.15249</v>
+        <v>31561.41438</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>16803.11569</v>
+        <v>20144.1127</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>64007.99777</v>
+        <v>60211.25566</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>29648.21184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>28610.14615</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>16944.918</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>253980.1121</v>
+        <v>210530.65802</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>125106.77204</v>
+        <v>97224.58494999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>189284.68518</v>
+        <v>132070.7559</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>180280.52532</v>
+        <v>144449.21554</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>132035.05166</v>
+        <v>117554.27706</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>95345.44323999999</v>
+        <v>69666.67767</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>155815.47628</v>
+        <v>171188.58316</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>42412.09409999999</v>
+        <v>16681.94545000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>74673.05155</v>
+        <v>34042.01691999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-55418.84183</v>
+        <v>-32678.44510999998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>127191.37126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>101232.38622</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>343880.605</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>28781.68268</v>
+        <v>28670.51717000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45875.9041</v>
+        <v>46547.45095</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>36426.36811</v>
+        <v>40475.98772</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>52897.79562999999</v>
+        <v>60831.33363</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>80108.51033000002</v>
+        <v>71596.81873999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>71168.87239</v>
+        <v>60765.71488</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>101481.19704</v>
+        <v>101888.31159</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>82975.67330999998</v>
+        <v>143399.17369</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>99892.84526</v>
+        <v>116292.53544</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>230956.56189</v>
+        <v>104608.57867</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>265697.10332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>230628.93259</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>119583.602</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>486.0968200000001</v>
+        <v>289.483</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>765.1659000000001</v>
+        <v>755.1136799999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>933.02408</v>
+        <v>927.73963</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1934.23797</v>
+        <v>1900.92469</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>743.93447</v>
+        <v>719.53628</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>526.3086900000001</v>
+        <v>508.18053</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1210.97082</v>
+        <v>1145.08714</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3136.20033</v>
+        <v>3140.18809</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4493.84907</v>
+        <v>638.60482</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>3264.62332</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13881.40543</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>11769.52981</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>786.54</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>28295.58586</v>
+        <v>28381.03417</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>45110.73819999999</v>
+        <v>45792.33727</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>35493.34403</v>
+        <v>39548.24809</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>50963.55766</v>
+        <v>58930.40894</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>79364.57586</v>
+        <v>70877.28246</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>70642.5637</v>
+        <v>60257.53435</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>100270.22622</v>
+        <v>100743.22445</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>79839.47297999999</v>
+        <v>140258.9856</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>95398.99619000001</v>
+        <v>115653.93062</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>227691.93857</v>
+        <v>101343.95535</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>251815.69789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>218859.40278</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>118797.062</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>53617.83</v>
+        <v>40986.64958</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>61954.06957</v>
+        <v>57362.46846</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>540846.71425</v>
+        <v>514667.53013</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>123288.89629</v>
+        <v>135911.32873</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>119726.32075</v>
+        <v>113971.01817</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>191418.15233</v>
+        <v>185649.84808</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>84564.77288999999</v>
+        <v>69381.14559</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>385156.71021</v>
+        <v>288400.0615000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>108009.55251</v>
+        <v>95451.83933</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>212746.94205</v>
+        <v>193468.38195</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>167759.8885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>154697.37649</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>93266.11599999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1854.80095</v>
+        <v>1566.20379</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1847.38865</v>
+        <v>1278.85368</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5930.339089999999</v>
+        <v>5024.550939999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2746.71647</v>
+        <v>10120.505</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4134.47128</v>
+        <v>3836.82431</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6390.595469999999</v>
+        <v>3282.70039</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8140.827660000001</v>
+        <v>559.70626</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10161.75468</v>
+        <v>217.9119</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4245.23103</v>
+        <v>2917.69895</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1590.21705</v>
+        <v>764.28326</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3519.04123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1642.0597</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8360.924999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3157.59944</v>
+        <v>3136.72733</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8338.475759999999</v>
+        <v>7960.38481</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>21424.89995</v>
+        <v>21353.43381</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>17722.76658</v>
+        <v>17314.13476</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>11255.70094</v>
+        <v>11229.65482</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2726.90884</v>
+        <v>2717.165899999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3995.710669999999</v>
+        <v>3988.64158</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1800.61018</v>
+        <v>2654.62544</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5172.444409999999</v>
+        <v>5351.57398</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7577.36418</v>
+        <v>7465.26303</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6973.8297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6864.50025</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9142.987999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>48605.42960999999</v>
+        <v>36283.71846</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>51768.20516</v>
+        <v>48123.22997</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>513491.47521</v>
+        <v>488289.54538</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>102819.41324</v>
+        <v>108476.68897</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>104336.14853</v>
+        <v>98904.53903999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>182300.64802</v>
+        <v>179649.98179</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>72428.23456</v>
+        <v>64832.79775</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>373194.34535</v>
+        <v>285527.52416</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>98591.87707</v>
+        <v>87182.56640000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>203579.36082</v>
+        <v>185238.83566</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>157267.01757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>146190.81654</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>75762.20299999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>229143.96478</v>
+        <v>198214.52561</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>109028.60657</v>
+        <v>86409.56744</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-315135.6609600001</v>
+        <v>-342120.78651</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>109889.42466</v>
+        <v>69369.22044</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>92417.24124</v>
+        <v>75180.07763</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-24903.83669999999</v>
+        <v>-55217.45553000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>172731.90043</v>
+        <v>203695.74916</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-259768.9428</v>
+        <v>-128318.94236</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>66556.34430000001</v>
+        <v>54882.71303000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-37209.22199000001</v>
+        <v>-121538.24839</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>225128.58608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>177163.94232</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>370198.091</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>59309.04144</v>
+        <v>56427.80147999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>47788.74816</v>
+        <v>41964.69683000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>57625.50822</v>
+        <v>56214.76668</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>56020.20721</v>
+        <v>53780.92368</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50613.93149</v>
+        <v>47244.18384</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>54919.70913</v>
+        <v>49035.23945</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>57337.51494</v>
+        <v>49759.95426999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>60685.36169999999</v>
+        <v>53665.77108000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>68711.71586</v>
+        <v>57452.67193</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>77198.71058</v>
+        <v>69497.65360999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>88668.56977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>82899.95007000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>102055.104</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>169834.92334</v>
+        <v>141786.72413</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>61239.85841</v>
+        <v>44444.87061000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-372761.16918</v>
+        <v>-398335.55319</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>53869.21745</v>
+        <v>15588.29676</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>41803.30975</v>
+        <v>27935.89379</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-79823.54583</v>
+        <v>-104252.69498</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>115394.38549</v>
+        <v>153935.79489</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-320454.3045</v>
+        <v>-181984.71344</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2155.371560000006</v>
+        <v>-2569.958899999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-114407.93257</v>
+        <v>-191035.902</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>136460.01631</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>94263.99224999998</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>268142.987</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>670</v>
+        <v>543</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>668</v>
+        <v>583</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>716</v>
+        <v>630</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>611</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>644</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>651</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>683</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>728</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>767</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>795</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>855</v>
+        <v>714</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>729</v>
+        <v>684</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>696</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>